--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4423579.039162086</v>
+        <v>4416562.024270375</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6954081.271131959</v>
+        <v>6954081.271131961</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>302.7279097246868</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>159.5623709710783</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>173.6677896396943</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>227.843273128277</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>193.4171325760647</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.2741345058926</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.21207662142776</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>312.3670571765911</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>148.3681250208878</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100.5088970641055</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.5918462324807</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>239.2495582252014</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>8.401683751054371</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3587278762635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>12.30354444471561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>74.2591590797296</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>164.3910148750467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701363</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.445277085911673</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>207.092072859501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.70677291831696</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675363</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836034</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.92969084765401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675363</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.72817936157242</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>67.62960647440649</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>17.93106827885175</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>163.3855388872497</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>256.604714631364</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.74594412459168</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1546.944160717209</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1188.678462110459</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1188.678462110459</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>777.6925573208512</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>359.728749219038</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>190.2718927217162</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2135.941483343059</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.038025956152</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>216.038025956152</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>216.038025956152</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>216.038025956152</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>216.038025956152</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>216.038025956152</v>
+        <v>652.1571896393357</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.038025956152</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.640269254486</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>794.3745706477357</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>794.3745706477357</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>383.3886658581281</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4652617967191</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>626.6048457578428</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>626.6048457578428</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>626.6048457578428</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.3990000507114</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
         <v>412.2823606383756</v>
@@ -5190,13 +5190,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1033.464634917912</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>744.0474648809511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>744.0474648809511</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.0474648809511</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,7 +5363,7 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.5778697504956</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225887</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1344.008464622283</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1344.008464622283</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1344.008464622283</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1344.008464622283</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1344.008464622283</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.018913724265</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.2263345807353</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>553.0935746802517</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.461721072713</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1651.324348736746</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>773.6543838050887</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>773.6543838050887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.607977814708</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211719</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653858</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>711.072954880832</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>711.072954880832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1043.736101594646</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>815.7465506966282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>215.2620637331986</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929847</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929847</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937518</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>3907.937523958224</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.947973060207</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6460,10 +6460,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765191</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765191</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>786.0822064765191</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>786.0822064765191</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1908.095276920733</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6858,52 +6858,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262959</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.210845262959</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570723</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>531.1091870201117</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>303.1196361220942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141295</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.2863307027312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>509.2863307027312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1481.009018677526</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1281.089008593078</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1281.089008593078</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>991.9603698066358</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>737.2758816007487</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>737.2758816007487</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>509.2863307027312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>509.2863307027312</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341677</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>333.7051469529972</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404654</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404654</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404654</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>964.1357418247848</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>736.1461909267673</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y40" t="n">
-        <v>515.3536117832371</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,34 +7426,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1006.183580119175</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1333.880372691994</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1333.880372691994</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1044.751733905552</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.751733905552</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>755.3345638685918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>180.050516805265</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>329.1202010073249</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>943.0172707642137</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035281</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.921157035281</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293938</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924333</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8299478944159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y46" t="n">
-        <v>414.0663679705859</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>38.8600230194989</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>18.73797368291349</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>283.6093329825505</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>145.2351313103787</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.3657496970634</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>39.88923345256649</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>41.75994765618333</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>10.65497486614714</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>12.88808509862656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>137.0193642718769</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>44.56208210733971</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>239.8340988791124</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>177.8784842440984</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>122.1319834615443</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>142.4685512816245</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43092547709</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.1252072636203</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.6549625044409</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>92.2361730422205</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.61721462422149</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>34.5352710963536</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>29.918283705227</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.8387092275031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593672.527571995</v>
+        <v>593672.5275719949</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754178</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007436</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007535</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.73165600753</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007486</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007401</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007435</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007368</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007438</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.763870408322</v>
+        <v>297.7638704085548</v>
       </c>
       <c r="C6" t="n">
         <v>590265.6430849527</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.6430849526</v>
+        <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937976</v>
+        <v>156019.4341340758</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="G6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="H6" t="n">
-        <v>682154.0618706938</v>
+        <v>681179.4706109721</v>
       </c>
       <c r="I6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109721</v>
       </c>
       <c r="J6" t="n">
-        <v>505730.8426781006</v>
+        <v>504756.2514183789</v>
       </c>
       <c r="K6" t="n">
-        <v>682154.0618706939</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="L6" t="n">
-        <v>682154.0618706939</v>
+        <v>681179.470610972</v>
       </c>
       <c r="M6" t="n">
-        <v>547353.0466368567</v>
+        <v>546378.4553771348</v>
       </c>
       <c r="N6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="O6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.470610972</v>
       </c>
       <c r="P6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.470610972</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21.19486303967034</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>226.6755676849753</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>51.36731581838995</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>121.397695589136</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>192.8208060799889</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>52.03566775315829</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.4975787676094</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>11.55571558776609</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>68.08019533676998</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>111.6366418859134</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29289,10 +29289,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,19 +29325,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.244638035099744e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.393937838719434e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.393937838719435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35731,10 +35731,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>349.2844000699651</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>267.9956786389378</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>594.0337100330166</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>427.598833551487</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>607.5603230950765</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>350.3136105030329</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>83.67012661109004</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416562.024270375</v>
+        <v>4421501.287119406</v>
       </c>
     </row>
     <row r="7">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>75.21207662142776</v>
+        <v>75.21207662142754</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>148.3681250208878</v>
+        <v>148.3681250208883</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.45262105857543</v>
+        <v>84.4526210585756</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>156.5918462324807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498024</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>8.401683751054371</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>182.8414065694712</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.445277085911673</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>17.93106827885175</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>256.604714631364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4494,25 +4494,25 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
         <v>570.4247794971948</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4707,22 +4707,22 @@
         <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
         <v>652.1571896393357</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2778626358874</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358874</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4801,31 +4801,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240413</v>
+        <v>580.2158906240414</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261309</v>
+        <v>433.3259431261311</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,19 +5068,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5129,10 +5129,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
         <v>710.3120936331045</v>
@@ -5241,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,46 +5263,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,10 +5311,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286132</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>665.6859735286132</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>515.5693341162774</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>367.6562405338843</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
         <v>2016.139981183168</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5758,25 +5758,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,7 +5937,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -5952,10 +5952,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,31 +5974,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1843.901542059518</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>215.2620637331986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7128,13 +7128,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7602,19 +7602,19 @@
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>415.8104215925219</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>176.717654749845</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>253.7371603504736</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>10.65497486614714</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>137.0193642718769</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>35.74324678262357</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>142.4685512816245</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>130.6844047393606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>29.918283705227</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="11">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754178</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704085548</v>
+        <v>297.763870408322</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.6430849527</v>
+        <v>590265.6430849525</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.643084953</v>
+        <v>590265.6430849526</v>
       </c>
       <c r="E6" t="n">
-        <v>156019.4341340758</v>
+        <v>156896.5662678251</v>
       </c>
       <c r="F6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447217</v>
       </c>
       <c r="G6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="H6" t="n">
-        <v>681179.4706109721</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="I6" t="n">
-        <v>681179.4706109721</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="J6" t="n">
-        <v>504756.2514183789</v>
+        <v>505633.3835521285</v>
       </c>
       <c r="K6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="L6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="M6" t="n">
-        <v>546378.4553771348</v>
+        <v>547255.5875108845</v>
       </c>
       <c r="N6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="O6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="P6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447216</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.4975787676094</v>
+        <v>150.4975787676096</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>68.08019533676998</v>
+        <v>68.08019533676952</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047548</v>
+        <v>82.85718120047531</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,10 +28344,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28380,16 +28380,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.414636683656336e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9122281478579</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36211,16 +36211,16 @@
         <v>564.1615374009399</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756878</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
